--- a/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
+++ b/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
@@ -206,7 +206,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:56:34</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:33:01</t>
   </si>
 </sst>
 </file>
@@ -6747,16 +6747,16 @@
         <v>82.5</v>
       </c>
       <c r="AB14" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="AC14" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AD14" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="AE14" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="AF14" t="n" s="10">
         <v>82.4</v>
@@ -6825,7 +6825,7 @@
         <v>86.0</v>
       </c>
       <c r="BB14" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="BC14" t="n" s="10">
         <v>86.7</v>
@@ -6858,7 +6858,7 @@
         <v>90.4</v>
       </c>
       <c r="BM14" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="BN14" t="n" s="10">
         <v>91.5</v>
@@ -6939,7 +6939,7 @@
         <v>98.9</v>
       </c>
       <c r="CN14" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="CO14" t="n" s="10">
         <v>96.3</v>
@@ -6963,19 +6963,19 @@
         <v>85.7</v>
       </c>
       <c r="CV14" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CW14" t="n" s="10">
         <v>83.3</v>
       </c>
       <c r="CX14" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="CY14" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="CZ14" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="DA14" t="n" s="10">
         <v>82.3</v>
@@ -6987,7 +6987,7 @@
         <v>83.5</v>
       </c>
       <c r="DD14" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="DE14" t="n" s="10">
         <v>85.3</v>
@@ -7002,7 +7002,7 @@
         <v>88.1</v>
       </c>
       <c r="DI14" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DJ14" t="n" s="10">
         <v>89.8</v>
@@ -8751,7 +8751,7 @@
         <v>82.2</v>
       </c>
       <c r="Z20" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="AA20" t="n" s="10">
         <v>82.1</v>
@@ -8781,7 +8781,7 @@
         <v>82.7</v>
       </c>
       <c r="AJ20" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="AK20" t="n" s="10">
         <v>83.2</v>
@@ -8928,7 +8928,7 @@
         <v>100.5</v>
       </c>
       <c r="CG20" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CH20" t="n" s="10">
         <v>101.2</v>
@@ -8937,7 +8937,7 @@
         <v>101.4</v>
       </c>
       <c r="CJ20" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CK20" t="n" s="10">
         <v>101.2</v>
@@ -8955,7 +8955,7 @@
         <v>97.0</v>
       </c>
       <c r="CP20" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="CQ20" t="n" s="10">
         <v>93.3</v>
@@ -8970,7 +8970,7 @@
         <v>87.4</v>
       </c>
       <c r="CU20" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CV20" t="n" s="10">
         <v>84.2</v>
@@ -8985,10 +8985,10 @@
         <v>81.9</v>
       </c>
       <c r="CZ20" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="DA20" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="DB20" t="n" s="10">
         <v>82.7</v>
@@ -9069,7 +9069,7 @@
         <v>98.2</v>
       </c>
       <c r="EB20" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="EC20" t="n" s="10">
         <v>98.1</v>
@@ -10908,7 +10908,7 @@
         <v>94.9</v>
       </c>
       <c r="BW26" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="BX26" t="n" s="10">
         <v>95.9</v>
@@ -10917,7 +10917,7 @@
         <v>96.4</v>
       </c>
       <c r="BZ26" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CA26" t="n" s="10">
         <v>97.3</v>
@@ -11013,7 +11013,7 @@
         <v>83.8</v>
       </c>
       <c r="DF26" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="DG26" t="n" s="10">
         <v>85.9</v>
@@ -11049,7 +11049,7 @@
         <v>95.0</v>
       </c>
       <c r="DR26" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DS26" t="n" s="10">
         <v>96.4</v>
@@ -11070,19 +11070,19 @@
         <v>98.2</v>
       </c>
       <c r="DY26" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="DZ26" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="EA26" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="EB26" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="EC26" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="true">
@@ -12789,7 +12789,7 @@
         <v>80.1</v>
       </c>
       <c r="AF32" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="AG32" t="n" s="10">
         <v>80.6</v>
@@ -12831,7 +12831,7 @@
         <v>83.5</v>
       </c>
       <c r="AT32" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="AU32" t="n" s="10">
         <v>83.6</v>
@@ -12873,13 +12873,13 @@
         <v>87.5</v>
       </c>
       <c r="BH32" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="BI32" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BJ32" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="BK32" t="n" s="10">
         <v>89.1</v>
@@ -12924,7 +12924,7 @@
         <v>96.6</v>
       </c>
       <c r="BY32" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="BZ32" t="n" s="10">
         <v>97.5</v>
@@ -12951,7 +12951,7 @@
         <v>100.4</v>
       </c>
       <c r="CH32" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="CI32" t="n" s="10">
         <v>101.0</v>
@@ -12960,25 +12960,25 @@
         <v>101.1</v>
       </c>
       <c r="CK32" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CL32" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="CM32" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="CN32" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CO32" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="CP32" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="CQ32" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="CR32" t="n" s="10">
         <v>90.7</v>
@@ -13080,19 +13080,19 @@
         <v>98.5</v>
       </c>
       <c r="DY32" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DZ32" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="EA32" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="EB32" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EC32" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="true">
@@ -14802,22 +14802,22 @@
         <v>81.3</v>
       </c>
       <c r="AG38" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AH38" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="AI38" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="AJ38" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="AK38" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="AL38" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="AM38" t="n" s="10">
         <v>83.5</v>
@@ -14874,7 +14874,7 @@
         <v>86.9</v>
       </c>
       <c r="BE38" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="BF38" t="n" s="10">
         <v>87.7</v>
@@ -14895,7 +14895,7 @@
         <v>90.4</v>
       </c>
       <c r="BL38" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="BM38" t="n" s="10">
         <v>91.9</v>
@@ -14913,7 +14913,7 @@
         <v>94.9</v>
       </c>
       <c r="BR38" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="BS38" t="n" s="10">
         <v>96.3</v>
@@ -14937,7 +14937,7 @@
         <v>99.5</v>
       </c>
       <c r="BZ38" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="CA38" t="n" s="10">
         <v>100.2</v>
@@ -15060,7 +15060,7 @@
         <v>96.1</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DP38" t="n" s="10">
         <v>97.7</v>
@@ -15078,7 +15078,7 @@
         <v>100.1</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="DV38" t="n" s="10">
         <v>100.7</v>
@@ -16797,7 +16797,7 @@
         <v>74.5</v>
       </c>
       <c r="AB44" t="n" s="10">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="AC44" t="n" s="10">
         <v>73.8</v>
@@ -16893,25 +16893,25 @@
         <v>82.1</v>
       </c>
       <c r="BH44" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="BI44" t="n" s="10">
         <v>82.8</v>
       </c>
       <c r="BJ44" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="BK44" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="BL44" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="BM44" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="BN44" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="BO44" t="n" s="10">
         <v>85.7</v>
@@ -16977,7 +16977,7 @@
         <v>97.6</v>
       </c>
       <c r="CJ44" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="CK44" t="n" s="10">
         <v>97.6</v>
@@ -17016,13 +17016,13 @@
         <v>78.2</v>
       </c>
       <c r="CW44" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="CX44" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="CY44" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="CZ44" t="n" s="10">
         <v>74.2</v>
@@ -17094,7 +17094,7 @@
         <v>94.5</v>
       </c>
       <c r="DW44" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DX44" t="n" s="10">
         <v>95.5</v>
@@ -17109,7 +17109,7 @@
         <v>96.2</v>
       </c>
       <c r="EB44" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="EC44" t="n" s="10">
         <v>96.4</v>
@@ -18807,7 +18807,7 @@
         <v>100.4</v>
       </c>
       <c r="AB50" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC50" t="n" s="10">
         <v>100.0</v>
@@ -18819,7 +18819,7 @@
         <v>99.7</v>
       </c>
       <c r="AF50" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="AG50" t="n" s="10">
         <v>100.7</v>
@@ -18906,7 +18906,7 @@
         <v>101.7</v>
       </c>
       <c r="BI50" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="BJ50" t="n" s="10">
         <v>103.0</v>
@@ -18918,7 +18918,7 @@
         <v>104.8</v>
       </c>
       <c r="BM50" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="BN50" t="n" s="10">
         <v>106.9</v>
@@ -18930,73 +18930,73 @@
         <v>108.6</v>
       </c>
       <c r="BQ50" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="BR50" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BS50" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BT50" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BU50" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BV50" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BW50" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BX50" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BY50" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BZ50" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="BS50" t="n" s="10">
-        <v>110.1</v>
-      </c>
-      <c r="BT50" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="BU50" t="n" s="10">
-        <v>110.5</v>
-      </c>
-      <c r="BV50" t="n" s="10">
-        <v>110.5</v>
-      </c>
-      <c r="BW50" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="BX50" t="n" s="10">
-        <v>110.3</v>
-      </c>
-      <c r="BY50" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="BZ50" t="n" s="10">
-        <v>110.1</v>
-      </c>
       <c r="CA50" t="n" s="10">
-        <v>110.1</v>
+        <v>109.8</v>
       </c>
       <c r="CB50" t="n" s="10">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="CC50" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="CD50" t="n" s="10">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="CE50" t="n" s="10">
         <v>109.3</v>
       </c>
       <c r="CF50" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="CG50" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="CG50" t="n" s="10">
-        <v>109.1</v>
-      </c>
       <c r="CH50" t="n" s="10">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="CI50" t="n" s="10">
-        <v>108.9</v>
+        <v>109.0</v>
       </c>
       <c r="CJ50" t="n" s="10">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="CK50" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="CL50" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="CM50" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="CN50" t="n" s="10">
         <v>104.1</v>
@@ -19023,7 +19023,7 @@
         <v>91.3</v>
       </c>
       <c r="CV50" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="CW50" t="n" s="10">
         <v>88.9</v>
@@ -19041,10 +19041,10 @@
         <v>87.9</v>
       </c>
       <c r="DB50" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="DC50" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DD50" t="n" s="10">
         <v>90.6</v>
@@ -19074,7 +19074,7 @@
         <v>96.9</v>
       </c>
       <c r="DM50" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DN50" t="n" s="10">
         <v>97.8</v>
@@ -19110,7 +19110,7 @@
         <v>100.9</v>
       </c>
       <c r="DY50" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DZ50" t="n" s="10">
         <v>100.7</v>
@@ -19122,7 +19122,7 @@
         <v>100.3</v>
       </c>
       <c r="EC50" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="true">
@@ -20823,7 +20823,7 @@
         <v>91.0</v>
       </c>
       <c r="AD56" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="AE56" t="n" s="10">
         <v>90.9</v>
@@ -20832,10 +20832,10 @@
         <v>90.9</v>
       </c>
       <c r="AG56" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="AH56" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="AI56" t="n" s="10">
         <v>90.8</v>
@@ -20847,7 +20847,7 @@
         <v>90.8</v>
       </c>
       <c r="AL56" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AM56" t="n" s="10">
         <v>90.8</v>
@@ -20871,7 +20871,7 @@
         <v>91.3</v>
       </c>
       <c r="AT56" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="AU56" t="n" s="10">
         <v>91.7</v>
@@ -20901,10 +20901,10 @@
         <v>94.6</v>
       </c>
       <c r="BD56" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="BE56" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="BF56" t="n" s="10">
         <v>95.5</v>
@@ -20922,13 +20922,13 @@
         <v>96.0</v>
       </c>
       <c r="BK56" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="BL56" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="BM56" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BN56" t="n" s="10">
         <v>96.4</v>
@@ -20937,10 +20937,10 @@
         <v>96.7</v>
       </c>
       <c r="BP56" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="BQ56" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BR56" t="n" s="10">
         <v>97.6</v>
@@ -20955,13 +20955,13 @@
         <v>98.9</v>
       </c>
       <c r="BV56" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BX56" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="BY56" t="n" s="10">
         <v>100.5</v>
@@ -20985,7 +20985,7 @@
         <v>101.1</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CG56" t="n" s="10">
         <v>100.8</v>
@@ -21033,7 +21033,7 @@
         <v>96.5</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CW56" t="n" s="10">
         <v>96.0</v>
@@ -21054,10 +21054,10 @@
         <v>95.6</v>
       </c>
       <c r="DC56" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DD56" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DE56" t="n" s="10">
         <v>96.2</v>
@@ -21066,7 +21066,7 @@
         <v>96.4</v>
       </c>
       <c r="DG56" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DH56" t="n" s="10">
         <v>96.9</v>
@@ -21084,7 +21084,7 @@
         <v>97.8</v>
       </c>
       <c r="DM56" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DN56" t="n" s="10">
         <v>98.3</v>
@@ -21123,7 +21123,7 @@
         <v>98.8</v>
       </c>
       <c r="DZ56" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="EA56" t="n" s="10">
         <v>98.3</v>
@@ -22830,7 +22830,7 @@
         <v>92.6</v>
       </c>
       <c r="AC62" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="AD62" t="n" s="10">
         <v>92.4</v>
@@ -22839,10 +22839,10 @@
         <v>92.3</v>
       </c>
       <c r="AF62" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="AG62" t="n" s="10">
         <v>92.4</v>
-      </c>
-      <c r="AG62" t="n" s="10">
-        <v>92.5</v>
       </c>
       <c r="AH62" t="n" s="10">
         <v>92.5</v>
@@ -22854,7 +22854,7 @@
         <v>92.5</v>
       </c>
       <c r="AK62" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AL62" t="n" s="10">
         <v>92.6</v>
@@ -22917,13 +22917,13 @@
         <v>96.0</v>
       </c>
       <c r="BF62" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="BG62" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="BH62" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="BI62" t="n" s="10">
         <v>96.9</v>
@@ -22944,7 +22944,7 @@
         <v>98.1</v>
       </c>
       <c r="BO62" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="BP62" t="n" s="10">
         <v>98.8</v>
@@ -22953,10 +22953,10 @@
         <v>99.2</v>
       </c>
       <c r="BR62" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="BS62" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BT62" t="n" s="10">
         <v>100.4</v>
@@ -22971,13 +22971,13 @@
         <v>101.4</v>
       </c>
       <c r="BX62" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="BY62" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="BZ62" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CA62" t="n" s="10">
         <v>102.4</v>
@@ -22986,7 +22986,7 @@
         <v>102.6</v>
       </c>
       <c r="CC62" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="CD62" t="n" s="10">
         <v>102.6</v>
@@ -22998,7 +22998,7 @@
         <v>102.4</v>
       </c>
       <c r="CG62" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CH62" t="n" s="10">
         <v>102.1</v>
@@ -23007,13 +23007,13 @@
         <v>101.9</v>
       </c>
       <c r="CJ62" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="CK62" t="n" s="10">
         <v>101.3</v>
       </c>
       <c r="CL62" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CM62" t="n" s="10">
         <v>100.5</v>
@@ -23043,16 +23043,16 @@
         <v>95.7</v>
       </c>
       <c r="CV62" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="CW62" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="CX62" t="n" s="10">
         <v>94.6</v>
       </c>
       <c r="CY62" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="CZ62" t="n" s="10">
         <v>94.3</v>
@@ -23061,7 +23061,7 @@
         <v>94.3</v>
       </c>
       <c r="DB62" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="DC62" t="n" s="10">
         <v>94.7</v>
@@ -23076,10 +23076,10 @@
         <v>95.8</v>
       </c>
       <c r="DG62" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="DH62" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="DI62" t="n" s="10">
         <v>96.7</v>
@@ -23130,13 +23130,13 @@
         <v>99.4</v>
       </c>
       <c r="DY62" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="DZ62" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="EA62" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="EB62" t="n" s="10">
         <v>98.4</v>
@@ -24849,10 +24849,10 @@
         <v>106.3</v>
       </c>
       <c r="AF68" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="AG68" t="n" s="10">
         <v>106.3</v>
-      </c>
-      <c r="AG68" t="n" s="10">
-        <v>106.2</v>
       </c>
       <c r="AH68" t="n" s="10">
         <v>106.3</v>
@@ -24900,7 +24900,7 @@
         <v>110.0</v>
       </c>
       <c r="AW68" t="n" s="10">
-        <v>110.1</v>
+        <v>110.0</v>
       </c>
       <c r="AX68" t="n" s="10">
         <v>110.0</v>
@@ -24954,7 +24954,7 @@
         <v>110.5</v>
       </c>
       <c r="BO68" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="BP68" t="n" s="10">
         <v>109.3</v>
@@ -25008,7 +25008,7 @@
         <v>109.0</v>
       </c>
       <c r="CG68" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="CH68" t="n" s="10">
         <v>108.6</v>
@@ -25140,7 +25140,7 @@
         <v>97.9</v>
       </c>
       <c r="DY68" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="DZ68" t="n" s="10">
         <v>97.6</v>
@@ -26841,16 +26841,16 @@
         <v>129.9</v>
       </c>
       <c r="Z74" t="n" s="10">
+        <v>129.2</v>
+      </c>
+      <c r="AA74" t="n" s="10">
+        <v>129.1</v>
+      </c>
+      <c r="AB74" t="n" s="10">
         <v>129.0</v>
       </c>
-      <c r="AA74" t="n" s="10">
-        <v>129.0</v>
-      </c>
-      <c r="AB74" t="n" s="10">
+      <c r="AC74" t="n" s="10">
         <v>128.9</v>
-      </c>
-      <c r="AC74" t="n" s="10">
-        <v>128.8</v>
       </c>
       <c r="AD74" t="n" s="10">
         <v>128.7</v>
@@ -26859,10 +26859,10 @@
         <v>128.7</v>
       </c>
       <c r="AF74" t="n" s="10">
-        <v>129.0</v>
+        <v>128.9</v>
       </c>
       <c r="AG74" t="n" s="10">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="AH74" t="n" s="10">
         <v>130.1</v>
@@ -26877,22 +26877,22 @@
         <v>132.4</v>
       </c>
       <c r="AL74" t="n" s="10">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="AM74" t="n" s="10">
-        <v>134.2</v>
+        <v>134.3</v>
       </c>
       <c r="AN74" t="n" s="10">
-        <v>135.1</v>
+        <v>135.2</v>
       </c>
       <c r="AO74" t="n" s="10">
         <v>136.0</v>
       </c>
       <c r="AP74" t="n" s="10">
-        <v>136.7</v>
+        <v>136.8</v>
       </c>
       <c r="AQ74" t="n" s="10">
-        <v>137.3</v>
+        <v>137.4</v>
       </c>
       <c r="AR74" t="n" s="10">
         <v>137.6</v>
@@ -26901,103 +26901,103 @@
         <v>137.8</v>
       </c>
       <c r="AT74" t="n" s="10">
-        <v>138.0</v>
+        <v>137.9</v>
       </c>
       <c r="AU74" t="n" s="10">
+        <v>138.1</v>
+      </c>
+      <c r="AV74" t="n" s="10">
         <v>138.3</v>
       </c>
-      <c r="AV74" t="n" s="10">
+      <c r="AW74" t="n" s="10">
+        <v>138.6</v>
+      </c>
+      <c r="AX74" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="AY74" t="n" s="10">
+        <v>138.9</v>
+      </c>
+      <c r="AZ74" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="BA74" t="n" s="10">
+        <v>139.2</v>
+      </c>
+      <c r="BB74" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="BC74" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="BD74" t="n" s="10">
+        <v>139.2</v>
+      </c>
+      <c r="BE74" t="n" s="10">
+        <v>139.2</v>
+      </c>
+      <c r="BF74" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="BG74" t="n" s="10">
+        <v>138.9</v>
+      </c>
+      <c r="BH74" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="BI74" t="n" s="10">
         <v>138.5</v>
-      </c>
-      <c r="AW74" t="n" s="10">
-        <v>138.8</v>
-      </c>
-      <c r="AX74" t="n" s="10">
-        <v>139.1</v>
-      </c>
-      <c r="AY74" t="n" s="10">
-        <v>139.2</v>
-      </c>
-      <c r="AZ74" t="n" s="10">
-        <v>139.4</v>
-      </c>
-      <c r="BA74" t="n" s="10">
-        <v>139.6</v>
-      </c>
-      <c r="BB74" t="n" s="10">
-        <v>139.6</v>
-      </c>
-      <c r="BC74" t="n" s="10">
-        <v>139.6</v>
-      </c>
-      <c r="BD74" t="n" s="10">
-        <v>139.5</v>
-      </c>
-      <c r="BE74" t="n" s="10">
-        <v>139.4</v>
-      </c>
-      <c r="BF74" t="n" s="10">
-        <v>139.3</v>
-      </c>
-      <c r="BG74" t="n" s="10">
-        <v>139.0</v>
-      </c>
-      <c r="BH74" t="n" s="10">
-        <v>138.8</v>
-      </c>
-      <c r="BI74" t="n" s="10">
-        <v>138.6</v>
       </c>
       <c r="BJ74" t="n" s="10">
         <v>138.3</v>
       </c>
       <c r="BK74" t="n" s="10">
+        <v>138.0</v>
+      </c>
+      <c r="BL74" t="n" s="10">
+        <v>137.8</v>
+      </c>
+      <c r="BM74" t="n" s="10">
+        <v>137.7</v>
+      </c>
+      <c r="BN74" t="n" s="10">
+        <v>137.7</v>
+      </c>
+      <c r="BO74" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="BP74" t="n" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="BQ74" t="n" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="BR74" t="n" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="BS74" t="n" s="10">
+        <v>137.7</v>
+      </c>
+      <c r="BT74" t="n" s="10">
         <v>138.1</v>
       </c>
-      <c r="BL74" t="n" s="10">
-        <v>137.9</v>
-      </c>
-      <c r="BM74" t="n" s="10">
-        <v>137.9</v>
-      </c>
-      <c r="BN74" t="n" s="10">
-        <v>137.8</v>
-      </c>
-      <c r="BO74" t="n" s="10">
-        <v>137.6</v>
-      </c>
-      <c r="BP74" t="n" s="10">
-        <v>137.5</v>
-      </c>
-      <c r="BQ74" t="n" s="10">
-        <v>137.5</v>
-      </c>
-      <c r="BR74" t="n" s="10">
-        <v>137.5</v>
-      </c>
-      <c r="BS74" t="n" s="10">
-        <v>137.8</v>
-      </c>
-      <c r="BT74" t="n" s="10">
-        <v>138.2</v>
-      </c>
       <c r="BU74" t="n" s="10">
-        <v>138.6</v>
+        <v>138.5</v>
       </c>
       <c r="BV74" t="n" s="10">
-        <v>139.1</v>
+        <v>139.0</v>
       </c>
       <c r="BW74" t="n" s="10">
-        <v>139.5</v>
+        <v>139.4</v>
       </c>
       <c r="BX74" t="n" s="10">
+        <v>139.6</v>
+      </c>
+      <c r="BY74" t="n" s="10">
         <v>139.7</v>
       </c>
-      <c r="BY74" t="n" s="10">
+      <c r="BZ74" t="n" s="10">
         <v>139.8</v>
-      </c>
-      <c r="BZ74" t="n" s="10">
-        <v>139.9</v>
       </c>
       <c r="CA74" t="n" s="10">
         <v>139.9</v>
@@ -27006,112 +27006,112 @@
         <v>139.8</v>
       </c>
       <c r="CC74" t="n" s="10">
-        <v>139.4</v>
+        <v>139.6</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>138.8</v>
+        <v>139.0</v>
       </c>
       <c r="CE74" t="n" s="10">
-        <v>138.0</v>
+        <v>138.2</v>
       </c>
       <c r="CF74" t="n" s="10">
-        <v>137.1</v>
+        <v>137.2</v>
       </c>
       <c r="CG74" t="n" s="10">
         <v>136.3</v>
       </c>
       <c r="CH74" t="n" s="10">
-        <v>135.5</v>
+        <v>135.3</v>
       </c>
       <c r="CI74" t="n" s="10">
-        <v>134.7</v>
+        <v>134.3</v>
       </c>
       <c r="CJ74" t="n" s="10">
-        <v>133.8</v>
+        <v>133.3</v>
       </c>
       <c r="CK74" t="n" s="10">
-        <v>132.9</v>
+        <v>132.2</v>
       </c>
       <c r="CL74" t="n" s="10">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="CM74" t="n" s="10">
-        <v>130.7</v>
+        <v>129.7</v>
       </c>
       <c r="CN74" t="n" s="10">
-        <v>129.7</v>
+        <v>128.6</v>
       </c>
       <c r="CO74" t="n" s="10">
-        <v>128.9</v>
+        <v>127.6</v>
       </c>
       <c r="CP74" t="n" s="10">
-        <v>128.1</v>
+        <v>126.8</v>
       </c>
       <c r="CQ74" t="n" s="10">
-        <v>127.3</v>
+        <v>126.0</v>
       </c>
       <c r="CR74" t="n" s="10">
-        <v>126.5</v>
+        <v>125.4</v>
       </c>
       <c r="CS74" t="n" s="10">
-        <v>125.5</v>
+        <v>124.6</v>
       </c>
       <c r="CT74" t="n" s="10">
-        <v>124.6</v>
+        <v>123.8</v>
       </c>
       <c r="CU74" t="n" s="10">
-        <v>123.8</v>
+        <v>123.2</v>
       </c>
       <c r="CV74" t="n" s="10">
-        <v>123.0</v>
+        <v>122.6</v>
       </c>
       <c r="CW74" t="n" s="10">
-        <v>122.2</v>
+        <v>121.9</v>
       </c>
       <c r="CX74" t="n" s="10">
-        <v>121.3</v>
+        <v>121.2</v>
       </c>
       <c r="CY74" t="n" s="10">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="CZ74" t="n" s="10">
-        <v>119.2</v>
+        <v>119.4</v>
       </c>
       <c r="DA74" t="n" s="10">
-        <v>118.1</v>
+        <v>118.3</v>
       </c>
       <c r="DB74" t="n" s="10">
-        <v>117.2</v>
+        <v>117.4</v>
       </c>
       <c r="DC74" t="n" s="10">
-        <v>116.4</v>
+        <v>116.6</v>
       </c>
       <c r="DD74" t="n" s="10">
-        <v>115.9</v>
+        <v>116.0</v>
       </c>
       <c r="DE74" t="n" s="10">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="DF74" t="n" s="10">
         <v>115.2</v>
       </c>
       <c r="DG74" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="DH74" t="n" s="10">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="DI74" t="n" s="10">
         <v>114.7</v>
       </c>
       <c r="DJ74" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="DK74" t="n" s="10">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="DL74" t="n" s="10">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="DM74" t="n" s="10">
         <v>115.7</v>
@@ -27120,7 +27120,7 @@
         <v>115.8</v>
       </c>
       <c r="DO74" t="n" s="10">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="DP74" t="n" s="10">
         <v>115.8</v>
@@ -27129,7 +27129,7 @@
         <v>115.7</v>
       </c>
       <c r="DR74" t="n" s="10">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="DS74" t="n" s="10">
         <v>115.2</v>
@@ -27144,25 +27144,25 @@
         <v>114.5</v>
       </c>
       <c r="DW74" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="DX74" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="DX74" t="n" s="10">
-        <v>114.7</v>
-      </c>
       <c r="DY74" t="n" s="10">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="DZ74" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="EA74" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="EA74" t="n" s="10">
+      <c r="EB74" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="EB74" t="n" s="10">
-        <v>115.3</v>
-      </c>
       <c r="EC74" t="n" s="10">
-        <v>115.4</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="true">
@@ -28851,28 +28851,28 @@
         <v>157.2</v>
       </c>
       <c r="Z80" t="n" s="10">
-        <v>152.3</v>
+        <v>152.5</v>
       </c>
       <c r="AA80" t="n" s="10">
-        <v>153.4</v>
+        <v>153.6</v>
       </c>
       <c r="AB80" t="n" s="10">
-        <v>154.7</v>
+        <v>154.8</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>156.2</v>
+        <v>156.3</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>157.5</v>
+        <v>157.6</v>
       </c>
       <c r="AE80" t="n" s="10">
-        <v>158.7</v>
+        <v>158.8</v>
       </c>
       <c r="AF80" t="n" s="10">
         <v>159.5</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>159.5</v>
+        <v>159.6</v>
       </c>
       <c r="AH80" t="n" s="10">
         <v>159.5</v>
@@ -28884,7 +28884,7 @@
         <v>158.6</v>
       </c>
       <c r="AK80" t="n" s="10">
-        <v>157.9</v>
+        <v>158.0</v>
       </c>
       <c r="AL80" t="n" s="10">
         <v>157.1</v>
@@ -28899,7 +28899,7 @@
         <v>154.0</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>152.9</v>
+        <v>153.0</v>
       </c>
       <c r="AQ80" t="n" s="10">
         <v>151.9</v>
@@ -28929,115 +28929,115 @@
         <v>150.2</v>
       </c>
       <c r="AZ80" t="n" s="10">
-        <v>150.7</v>
+        <v>150.6</v>
       </c>
       <c r="BA80" t="n" s="10">
-        <v>151.0</v>
+        <v>150.9</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>151.0</v>
+        <v>150.9</v>
       </c>
       <c r="BC80" t="n" s="10">
-        <v>150.7</v>
+        <v>150.6</v>
       </c>
       <c r="BD80" t="n" s="10">
-        <v>150.1</v>
+        <v>150.0</v>
       </c>
       <c r="BE80" t="n" s="10">
-        <v>149.3</v>
+        <v>149.2</v>
       </c>
       <c r="BF80" t="n" s="10">
-        <v>148.5</v>
+        <v>148.4</v>
       </c>
       <c r="BG80" t="n" s="10">
-        <v>147.8</v>
+        <v>147.6</v>
       </c>
       <c r="BH80" t="n" s="10">
-        <v>147.2</v>
+        <v>146.8</v>
       </c>
       <c r="BI80" t="n" s="10">
-        <v>146.7</v>
+        <v>146.1</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>145.8</v>
+        <v>145.2</v>
       </c>
       <c r="BK80" t="n" s="10">
-        <v>144.7</v>
+        <v>144.2</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>143.6</v>
+        <v>143.3</v>
       </c>
       <c r="BM80" t="n" s="10">
-        <v>142.7</v>
+        <v>142.8</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>142.3</v>
+        <v>142.8</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>142.4</v>
+        <v>143.3</v>
       </c>
       <c r="BP80" t="n" s="10">
-        <v>143.1</v>
+        <v>144.5</v>
       </c>
       <c r="BQ80" t="n" s="10">
-        <v>144.5</v>
+        <v>146.4</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>146.6</v>
+        <v>148.9</v>
       </c>
       <c r="BS80" t="n" s="10">
-        <v>149.4</v>
+        <v>152.1</v>
       </c>
       <c r="BT80" t="n" s="10">
-        <v>153.0</v>
+        <v>156.1</v>
       </c>
       <c r="BU80" t="n" s="10">
-        <v>157.3</v>
+        <v>160.6</v>
       </c>
       <c r="BV80" t="n" s="10">
-        <v>162.0</v>
+        <v>165.3</v>
       </c>
       <c r="BW80" t="n" s="10">
-        <v>166.9</v>
+        <v>169.9</v>
       </c>
       <c r="BX80" t="n" s="10">
-        <v>171.5</v>
+        <v>174.3</v>
       </c>
       <c r="BY80" t="n" s="10">
-        <v>175.8</v>
+        <v>178.2</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>179.9</v>
+        <v>181.8</v>
       </c>
       <c r="CA80" t="n" s="10">
-        <v>183.2</v>
+        <v>184.7</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>185.8</v>
+        <v>186.8</v>
       </c>
       <c r="CC80" t="n" s="10">
-        <v>187.6</v>
+        <v>188.2</v>
       </c>
       <c r="CD80" t="n" s="10">
-        <v>188.4</v>
+        <v>188.6</v>
       </c>
       <c r="CE80" t="n" s="10">
-        <v>188.2</v>
+        <v>188.1</v>
       </c>
       <c r="CF80" t="n" s="10">
-        <v>187.1</v>
+        <v>186.8</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>185.0</v>
+        <v>184.5</v>
       </c>
       <c r="CH80" t="n" s="10">
-        <v>182.0</v>
+        <v>181.7</v>
       </c>
       <c r="CI80" t="n" s="10">
-        <v>179.0</v>
+        <v>178.8</v>
       </c>
       <c r="CJ80" t="n" s="10">
-        <v>176.1</v>
+        <v>176.0</v>
       </c>
       <c r="CK80" t="n" s="10">
         <v>173.3</v>
@@ -29055,40 +29055,40 @@
         <v>164.2</v>
       </c>
       <c r="CP80" t="n" s="10">
-        <v>162.0</v>
+        <v>162.1</v>
       </c>
       <c r="CQ80" t="n" s="10">
-        <v>159.6</v>
+        <v>159.7</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>157.2</v>
+        <v>157.3</v>
       </c>
       <c r="CS80" t="n" s="10">
-        <v>154.5</v>
+        <v>154.7</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>152.0</v>
+        <v>152.2</v>
       </c>
       <c r="CU80" t="n" s="10">
-        <v>149.2</v>
+        <v>149.4</v>
       </c>
       <c r="CV80" t="n" s="10">
-        <v>146.0</v>
+        <v>146.2</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>142.8</v>
+        <v>143.0</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>139.9</v>
+        <v>140.0</v>
       </c>
       <c r="CY80" t="n" s="10">
-        <v>136.8</v>
+        <v>136.9</v>
       </c>
       <c r="CZ80" t="n" s="10">
-        <v>133.7</v>
+        <v>133.8</v>
       </c>
       <c r="DA80" t="n" s="10">
-        <v>130.9</v>
+        <v>131.0</v>
       </c>
       <c r="DB80" t="n" s="10">
         <v>128.9</v>
@@ -29097,7 +29097,7 @@
         <v>127.5</v>
       </c>
       <c r="DD80" t="n" s="10">
-        <v>126.6</v>
+        <v>126.7</v>
       </c>
       <c r="DE80" t="n" s="10">
         <v>126.3</v>
@@ -29112,10 +29112,10 @@
         <v>126.9</v>
       </c>
       <c r="DI80" t="n" s="10">
-        <v>127.6</v>
+        <v>127.7</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>128.0</v>
+        <v>128.1</v>
       </c>
       <c r="DK80" t="n" s="10">
         <v>128.4</v>
@@ -29142,7 +29142,7 @@
         <v>127.9</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>128.0</v>
+        <v>127.9</v>
       </c>
       <c r="DT80" t="n" s="10">
         <v>127.9</v>
@@ -29154,25 +29154,25 @@
         <v>128.0</v>
       </c>
       <c r="DW80" t="n" s="10">
-        <v>128.4</v>
+        <v>128.3</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>128.8</v>
+        <v>128.6</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>129.1</v>
+        <v>129.0</v>
       </c>
       <c r="DZ80" t="n" s="10">
+        <v>129.3</v>
+      </c>
+      <c r="EA80" t="n" s="10">
         <v>129.5</v>
       </c>
-      <c r="EA80" t="n" s="10">
-        <v>129.7</v>
-      </c>
       <c r="EB80" t="n" s="10">
-        <v>129.7</v>
+        <v>129.5</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>129.4</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="81" ht="22.5" customHeight="true">
@@ -30864,7 +30864,7 @@
         <v>79.8</v>
       </c>
       <c r="AA86" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AB86" t="n" s="10">
         <v>79.8</v>
@@ -31047,10 +31047,10 @@
         <v>100.3</v>
       </c>
       <c r="CJ86" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CK86" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CL86" t="n" s="10">
         <v>99.6</v>
@@ -31059,7 +31059,7 @@
         <v>98.7</v>
       </c>
       <c r="CN86" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CO86" t="n" s="10">
         <v>95.9</v>
@@ -31086,7 +31086,7 @@
         <v>82.6</v>
       </c>
       <c r="CW86" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="CX86" t="n" s="10">
         <v>80.6</v>
@@ -31113,13 +31113,13 @@
         <v>83.9</v>
       </c>
       <c r="DF86" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DG86" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>87.9</v>
@@ -31167,22 +31167,22 @@
         <v>98.0</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="DY86" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="EA86" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="EB86" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="EC86" t="n" s="10">
         <v>98.1</v>
-      </c>
-      <c r="EC86" t="n" s="10">
-        <v>98.0</v>
       </c>
     </row>
     <row r="87" ht="22.5" customHeight="true">
@@ -32874,7 +32874,7 @@
         <v>101.6</v>
       </c>
       <c r="AA92" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AB92" t="n" s="10">
         <v>101.9</v>
@@ -32910,7 +32910,7 @@
         <v>102.9</v>
       </c>
       <c r="AM92" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AN92" t="n" s="10">
         <v>103.0</v>
@@ -33075,10 +33075,10 @@
         <v>100.4</v>
       </c>
       <c r="CP92" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="CQ92" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="CR92" t="n" s="10">
         <v>97.9</v>
@@ -33183,10 +33183,10 @@
         <v>94.4</v>
       </c>
       <c r="DZ92" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="EA92" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="EB92" t="n" s="10">
         <v>94.7</v>
@@ -35148,28 +35148,28 @@
         <v>92.4</v>
       </c>
       <c r="DK98" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="DL98" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="DM98" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="DN98" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="DO98" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="DP98" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DQ98" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="DR98" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="DS98" t="n" s="10">
         <v>96.4</v>
@@ -35178,13 +35178,13 @@
         <v>96.7</v>
       </c>
       <c r="DU98" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="DV98" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DW98" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX98" t="n" s="10">
         <v>98.4</v>
@@ -35193,16 +35193,16 @@
         <v>98.8</v>
       </c>
       <c r="DZ98" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="EA98" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="EB98" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="EC98" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="99" ht="22.5" customHeight="true">
@@ -36909,58 +36909,58 @@
         <v>84.8</v>
       </c>
       <c r="AF104" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="AG104" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="AH104" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="AI104" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="AJ104" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="AK104" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AM104" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AN104" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="AO104" t="n" s="10">
-        <v>80.6</v>
+        <v>80.4</v>
       </c>
       <c r="AP104" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AQ104" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="AR104" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="AS104" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="AT104" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="AU104" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="AV104" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="AW104" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="AX104" t="n" s="10">
         <v>75.2</v>
@@ -36984,73 +36984,73 @@
         <v>74.2</v>
       </c>
       <c r="BE104" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BF104" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="BG104" t="n" s="10">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>74.5</v>
+        <v>74.7</v>
       </c>
       <c r="BI104" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="BJ104" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="BK104" t="n" s="10">
-        <v>75.6</v>
+        <v>75.7</v>
       </c>
       <c r="BL104" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="BM104" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="BN104" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="BO104" t="n" s="10">
-        <v>79.6</v>
+        <v>79.8</v>
       </c>
       <c r="BP104" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="BQ104" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="BR104" t="n" s="10">
-        <v>82.8</v>
+        <v>83.0</v>
       </c>
       <c r="BS104" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="BT104" t="n" s="10">
-        <v>84.1</v>
+        <v>84.3</v>
       </c>
       <c r="BU104" t="n" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="BV104" t="n" s="10">
         <v>84.3</v>
       </c>
-      <c r="BV104" t="n" s="10">
-        <v>84.2</v>
-      </c>
       <c r="BW104" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="BX104" t="n" s="10">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="BY104" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="BZ104" t="n" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="CA104" t="n" s="10">
         <v>82.6</v>
-      </c>
-      <c r="CA104" t="n" s="10">
-        <v>82.5</v>
       </c>
       <c r="CB104" t="n" s="10">
         <v>82.5</v>
@@ -37086,7 +37086,7 @@
         <v>82.0</v>
       </c>
       <c r="CM104" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="CN104" t="n" s="10">
         <v>81.1</v>
@@ -37101,67 +37101,67 @@
         <v>80.2</v>
       </c>
       <c r="CR104" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="CS104" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="CT104" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="CV104" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="CW104" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="CX104" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="CY104" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="CZ104" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DA104" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DB104" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DC104" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="DD104" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="DF104" t="n" s="10">
+        <v>80.4</v>
+      </c>
+      <c r="DG104" t="n" s="10">
         <v>80.5</v>
       </c>
-      <c r="DG104" t="n" s="10">
-        <v>80.6</v>
-      </c>
       <c r="DH104" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="DI104" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DJ104" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="DK104" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="DL104" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DM104" t="n" s="10">
         <v>85.9</v>
@@ -37173,7 +37173,7 @@
         <v>88.2</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DQ104" t="n" s="10">
         <v>89.9</v>
@@ -37185,7 +37185,7 @@
         <v>91.2</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="DU104" t="n" s="10">
         <v>91.4</v>
@@ -37194,7 +37194,7 @@
         <v>91.4</v>
       </c>
       <c r="DW104" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="DX104" t="n" s="10">
         <v>91.3</v>
@@ -37203,13 +37203,13 @@
         <v>91.2</v>
       </c>
       <c r="DZ104" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="EA104" t="n" s="10">
         <v>91.0</v>
       </c>
-      <c r="EA104" t="n" s="10">
-        <v>90.9</v>
-      </c>
       <c r="EB104" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="EC104" t="n" s="10">
         <v>91.1</v>
@@ -38931,7 +38931,7 @@
         <v>81.5</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="AK110" t="n" s="10">
         <v>80.7</v>
@@ -38940,43 +38940,43 @@
         <v>80.2</v>
       </c>
       <c r="AM110" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="AN110" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="AO110" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="AP110" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="AQ110" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="AR110" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="AS110" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AT110" t="n" s="10">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="AU110" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="AV110" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="AX110" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="AY110" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="AZ110" t="n" s="10">
         <v>71.3</v>
@@ -38991,73 +38991,73 @@
         <v>70.9</v>
       </c>
       <c r="BD110" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="BE110" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="BF110" t="n" s="10">
-        <v>70.9</v>
+        <v>71.0</v>
       </c>
       <c r="BG110" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="BH110" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="BJ110" t="n" s="10">
-        <v>72.1</v>
+        <v>72.2</v>
       </c>
       <c r="BK110" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="BN110" t="n" s="10">
-        <v>75.5</v>
+        <v>75.7</v>
       </c>
       <c r="BO110" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="BP110" t="n" s="10">
-        <v>77.8</v>
+        <v>78.0</v>
       </c>
       <c r="BQ110" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="BR110" t="n" s="10">
+        <v>79.9</v>
+      </c>
+      <c r="BS110" t="n" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="BT110" t="n" s="10">
+        <v>81.2</v>
+      </c>
+      <c r="BU110" t="n" s="10">
+        <v>81.4</v>
+      </c>
+      <c r="BV110" t="n" s="10">
+        <v>81.3</v>
+      </c>
+      <c r="BW110" t="n" s="10">
+        <v>80.9</v>
+      </c>
+      <c r="BX110" t="n" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="BY110" t="n" s="10">
+        <v>80.1</v>
+      </c>
+      <c r="BZ110" t="n" s="10">
         <v>79.8</v>
-      </c>
-      <c r="BS110" t="n" s="10">
-        <v>80.6</v>
-      </c>
-      <c r="BT110" t="n" s="10">
-        <v>81.1</v>
-      </c>
-      <c r="BU110" t="n" s="10">
-        <v>81.3</v>
-      </c>
-      <c r="BV110" t="n" s="10">
-        <v>81.1</v>
-      </c>
-      <c r="BW110" t="n" s="10">
-        <v>80.8</v>
-      </c>
-      <c r="BX110" t="n" s="10">
-        <v>80.4</v>
-      </c>
-      <c r="BY110" t="n" s="10">
-        <v>80.0</v>
-      </c>
-      <c r="BZ110" t="n" s="10">
-        <v>79.7</v>
       </c>
       <c r="CA110" t="n" s="10">
         <v>79.7</v>
@@ -39081,10 +39081,10 @@
         <v>79.8</v>
       </c>
       <c r="CH110" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="CI110" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="CJ110" t="n" s="10">
         <v>79.5</v>
@@ -39105,10 +39105,10 @@
         <v>77.4</v>
       </c>
       <c r="CP110" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="CR110" t="n" s="10">
         <v>76.8</v>
@@ -39117,25 +39117,25 @@
         <v>76.9</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="CW110" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="CY110" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="CZ110" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="DA110" t="n" s="10">
         <v>77.9</v>
@@ -39147,7 +39147,7 @@
         <v>77.5</v>
       </c>
       <c r="DD110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DE110" t="n" s="10">
         <v>77.5</v>
@@ -39168,31 +39168,31 @@
         <v>78.9</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DL110" t="n" s="10">
         <v>80.5</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DN110" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="DT110" t="n" s="10">
         <v>86.5</v>
@@ -39204,25 +39204,25 @@
         <v>87.3</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DX110" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DY110" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="DZ110" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="EA110" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="EC110" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="111" ht="22.5" customHeight="true">
@@ -40911,7 +40911,7 @@
         <v>89.9</v>
       </c>
       <c r="Z116" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="AA116" t="n" s="10">
         <v>89.8</v>
@@ -40923,10 +40923,10 @@
         <v>90.0</v>
       </c>
       <c r="AD116" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="AE116" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="AF116" t="n" s="10">
         <v>89.6</v>
@@ -40935,22 +40935,22 @@
         <v>88.9</v>
       </c>
       <c r="AH116" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="AI116" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="AJ116" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="AK116" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="AL116" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="AM116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="AN116" t="n" s="10">
         <v>85.0</v>
@@ -40998,7 +40998,7 @@
         <v>80.6</v>
       </c>
       <c r="BC116" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="BD116" t="n" s="10">
         <v>80.1</v>
@@ -41007,10 +41007,10 @@
         <v>80.0</v>
       </c>
       <c r="BF116" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="BG116" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="BH116" t="n" s="10">
         <v>80.0</v>
@@ -41019,19 +41019,19 @@
         <v>80.1</v>
       </c>
       <c r="BJ116" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="BK116" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="BL116" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="BM116" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="BN116" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="BO116" t="n" s="10">
         <v>84.8</v>
@@ -41040,7 +41040,7 @@
         <v>86.0</v>
       </c>
       <c r="BQ116" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="BR116" t="n" s="10">
         <v>88.1</v>
@@ -41061,16 +41061,16 @@
         <v>89.2</v>
       </c>
       <c r="BX116" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="BY116" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="BZ116" t="n" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="CA116" t="n" s="10">
         <v>87.7</v>
-      </c>
-      <c r="CA116" t="n" s="10">
-        <v>87.6</v>
       </c>
       <c r="CB116" t="n" s="10">
         <v>87.6</v>
@@ -41082,16 +41082,16 @@
         <v>87.7</v>
       </c>
       <c r="CE116" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="CF116" t="n" s="10">
         <v>87.9</v>
       </c>
       <c r="CG116" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="CH116" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="CI116" t="n" s="10">
         <v>88.8</v>
@@ -41124,16 +41124,16 @@
         <v>86.2</v>
       </c>
       <c r="CS116" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="CT116" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CU116" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="CV116" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="CW116" t="n" s="10">
         <v>88.5</v>
@@ -41142,28 +41142,28 @@
         <v>88.5</v>
       </c>
       <c r="CY116" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CZ116" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DA116" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="DB116" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DC116" t="n" s="10">
         <v>87.3</v>
       </c>
       <c r="DD116" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DE116" t="n" s="10">
         <v>86.8</v>
       </c>
       <c r="DF116" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="DG116" t="n" s="10">
         <v>86.5</v>
@@ -41196,7 +41196,7 @@
         <v>94.5</v>
       </c>
       <c r="DQ116" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="DR116" t="n" s="10">
         <v>96.2</v>
@@ -41214,7 +41214,7 @@
         <v>96.5</v>
       </c>
       <c r="DW116" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="DX116" t="n" s="10">
         <v>95.9</v>
@@ -41226,7 +41226,7 @@
         <v>95.0</v>
       </c>
       <c r="EA116" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="EB116" t="n" s="10">
         <v>94.2</v>
@@ -43173,7 +43173,7 @@
         <v>50</v>
       </c>
       <c r="DF122" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="DG122" t="n" s="10">
         <v>105.1</v>
@@ -43188,10 +43188,10 @@
         <v>105.3</v>
       </c>
       <c r="DK122" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="DL122" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="DM122" t="n" s="10">
         <v>105.0</v>
@@ -43200,13 +43200,13 @@
         <v>104.9</v>
       </c>
       <c r="DO122" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="DP122" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="DP122" t="n" s="10">
-        <v>105.0</v>
-      </c>
       <c r="DQ122" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="DR122" t="n" s="10">
         <v>105.3</v>
@@ -43215,7 +43215,7 @@
         <v>105.4</v>
       </c>
       <c r="DT122" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="DU122" t="n" s="10">
         <v>106.0</v>
@@ -45186,7 +45186,7 @@
         <v>85.2</v>
       </c>
       <c r="DG128" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DH128" t="n" s="10">
         <v>87.3</v>
@@ -45213,10 +45213,10 @@
         <v>93.8</v>
       </c>
       <c r="DP128" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="DQ128" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DR128" t="n" s="10">
         <v>96.2</v>
@@ -45240,16 +45240,16 @@
         <v>98.5</v>
       </c>
       <c r="DY128" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DZ128" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="EA128" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EB128" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="EC128" t="n" s="10">
         <v>98.3</v>
@@ -46947,7 +46947,7 @@
         <v>74.0</v>
       </c>
       <c r="AB134" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="AC134" t="n" s="10">
         <v>73.6</v>
@@ -46971,7 +46971,7 @@
         <v>74.8</v>
       </c>
       <c r="AJ134" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="AK134" t="n" s="10">
         <v>75.5</v>
@@ -47019,7 +47019,7 @@
         <v>79.1</v>
       </c>
       <c r="AZ134" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="BA134" t="n" s="10">
         <v>79.9</v>
@@ -47037,7 +47037,7 @@
         <v>82.0</v>
       </c>
       <c r="BF134" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="BG134" t="n" s="10">
         <v>83.1</v>
@@ -47064,10 +47064,10 @@
         <v>86.9</v>
       </c>
       <c r="BO134" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="BP134" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BQ134" t="n" s="10">
         <v>89.0</v>
@@ -47118,13 +47118,13 @@
         <v>98.8</v>
       </c>
       <c r="CG134" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="CH134" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="CI134" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CJ134" t="n" s="10">
         <v>101.0</v>
@@ -47142,10 +47142,10 @@
         <v>99.2</v>
       </c>
       <c r="CO134" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="CP134" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CQ134" t="n" s="10">
         <v>94.0</v>
@@ -47154,7 +47154,7 @@
         <v>91.8</v>
       </c>
       <c r="CS134" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="CT134" t="n" s="10">
         <v>87.0</v>
@@ -47175,7 +47175,7 @@
         <v>77.4</v>
       </c>
       <c r="CZ134" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="DA134" t="n" s="10">
         <v>76.0</v>
@@ -47199,7 +47199,7 @@
         <v>79.4</v>
       </c>
       <c r="DH134" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="DI134" t="n" s="10">
         <v>81.5</v>
@@ -48960,7 +48960,7 @@
         <v>91.5</v>
       </c>
       <c r="AC140" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="AD140" t="n" s="10">
         <v>90.9</v>
@@ -49011,7 +49011,7 @@
         <v>91.0</v>
       </c>
       <c r="AT140" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="AU140" t="n" s="10">
         <v>91.0</v>
@@ -49032,10 +49032,10 @@
         <v>91.8</v>
       </c>
       <c r="BA140" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="BB140" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="BC140" t="n" s="10">
         <v>92.7</v>
@@ -49044,19 +49044,19 @@
         <v>93.0</v>
       </c>
       <c r="BE140" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="BF140" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BG140" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="BH140" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="BI140" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="BJ140" t="n" s="10">
         <v>94.5</v>
@@ -49071,7 +49071,7 @@
         <v>95.5</v>
       </c>
       <c r="BN140" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="BO140" t="n" s="10">
         <v>96.4</v>
@@ -49167,7 +49167,7 @@
         <v>94.6</v>
       </c>
       <c r="CT140" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="CU140" t="n" s="10">
         <v>92.8</v>
@@ -49230,13 +49230,13 @@
         <v>96.3</v>
       </c>
       <c r="DO140" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DP140" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DQ140" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DR140" t="n" s="10">
         <v>98.0</v>
@@ -49257,16 +49257,16 @@
         <v>97.9</v>
       </c>
       <c r="DX140" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DY140" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DZ140" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="EA140" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="EB140" t="n" s="10">
         <v>95.9</v>
@@ -50973,13 +50973,13 @@
         <v>93.7</v>
       </c>
       <c r="AD146" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="AE146" t="n" s="10">
         <v>93.9</v>
       </c>
-      <c r="AE146" t="n" s="10">
-        <v>94.0</v>
-      </c>
       <c r="AF146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AG146" t="n" s="10">
         <v>93.9</v>
@@ -50994,7 +50994,7 @@
         <v>94.0</v>
       </c>
       <c r="AK146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AL146" t="n" s="10">
         <v>94.0</v>
@@ -51030,7 +51030,7 @@
         <v>95.0</v>
       </c>
       <c r="AW146" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="AX146" t="n" s="10">
         <v>95.8</v>
@@ -51132,13 +51132,13 @@
         <v>102.2</v>
       </c>
       <c r="CE146" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CF146" t="n" s="10">
         <v>101.8</v>
       </c>
       <c r="CG146" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CH146" t="n" s="10">
         <v>101.3</v>
@@ -51150,10 +51150,10 @@
         <v>100.7</v>
       </c>
       <c r="CK146" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CL146" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="CM146" t="n" s="10">
         <v>100.1</v>
@@ -51180,16 +51180,16 @@
         <v>99.2</v>
       </c>
       <c r="CU146" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CV146" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CW146" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="CX146" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CY146" t="n" s="10">
         <v>99.2</v>
@@ -51207,16 +51207,16 @@
         <v>99.6</v>
       </c>
       <c r="DD146" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="DE146" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="DF146" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="DG146" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DH146" t="n" s="10">
         <v>100.2</v>
@@ -53004,7 +53004,7 @@
         <v>83.1</v>
       </c>
       <c r="AK152" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AL152" t="n" s="10">
         <v>83.4</v>
@@ -53028,7 +53028,7 @@
         <v>85.7</v>
       </c>
       <c r="AS152" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AT152" t="n" s="10">
         <v>86.5</v>
@@ -53049,7 +53049,7 @@
         <v>88.5</v>
       </c>
       <c r="AZ152" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="BA152" t="n" s="10">
         <v>89.2</v>
@@ -53094,7 +53094,7 @@
         <v>93.1</v>
       </c>
       <c r="BO152" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="BP152" t="n" s="10">
         <v>94.0</v>
@@ -53172,7 +53172,7 @@
         <v>96.0</v>
       </c>
       <c r="CO152" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="CP152" t="n" s="10">
         <v>92.8</v>
@@ -53196,7 +53196,7 @@
         <v>85.1</v>
       </c>
       <c r="CW152" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CX152" t="n" s="10">
         <v>85.1</v>
@@ -53262,10 +53262,10 @@
         <v>100.0</v>
       </c>
       <c r="DS152" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="DT152" t="n" s="10">
         <v>100.0</v>
-      </c>
-      <c r="DT152" t="n" s="10">
-        <v>99.9</v>
       </c>
       <c r="DU152" t="n" s="10">
         <v>99.7</v>
@@ -53274,7 +53274,7 @@
         <v>99.3</v>
       </c>
       <c r="DW152" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DX152" t="n" s="10">
         <v>98.3</v>
@@ -54981,7 +54981,7 @@
         <v>83.4</v>
       </c>
       <c r="Z158" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="AA158" t="n" s="10">
         <v>82.4</v>
@@ -54993,19 +54993,19 @@
         <v>82.5</v>
       </c>
       <c r="AD158" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="AE158" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="AF158" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="AG158" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="AH158" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="AI158" t="n" s="10">
         <v>84.2</v>
@@ -55029,31 +55029,31 @@
         <v>85.9</v>
       </c>
       <c r="AP158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="AQ158" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="AR158" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="AS158" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="AT158" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="AU158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="AV158" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="AW158" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="AX158" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="AY158" t="n" s="10">
         <v>86.0</v>
@@ -55083,7 +55083,7 @@
         <v>88.1</v>
       </c>
       <c r="BH158" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="BI158" t="n" s="10">
         <v>89.1</v>
@@ -55098,7 +55098,7 @@
         <v>91.2</v>
       </c>
       <c r="BM158" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="BN158" t="n" s="10">
         <v>92.9</v>
@@ -55110,31 +55110,31 @@
         <v>94.5</v>
       </c>
       <c r="BQ158" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="BR158" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="BS158" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="BT158" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BU158" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="BV158" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="BW158" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BX158" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="BY158" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="BZ158" t="n" s="10">
         <v>99.7</v>
@@ -55143,19 +55143,19 @@
         <v>100.1</v>
       </c>
       <c r="CB158" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="CC158" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="CD158" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="CE158" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CF158" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="CG158" t="n" s="10">
         <v>102.7</v>
@@ -55176,52 +55176,52 @@
         <v>103.0</v>
       </c>
       <c r="CM158" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="CN158" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="CO158" t="n" s="10">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="CP158" t="n" s="10">
-        <v>95.2</v>
+        <v>94.9</v>
       </c>
       <c r="CQ158" t="n" s="10">
-        <v>92.2</v>
+        <v>91.9</v>
       </c>
       <c r="CR158" t="n" s="10">
-        <v>89.1</v>
+        <v>88.7</v>
       </c>
       <c r="CS158" t="n" s="10">
-        <v>86.0</v>
+        <v>85.6</v>
       </c>
       <c r="CT158" t="n" s="10">
-        <v>83.1</v>
+        <v>82.7</v>
       </c>
       <c r="CU158" t="n" s="10">
-        <v>80.6</v>
+        <v>80.1</v>
       </c>
       <c r="CV158" t="n" s="10">
-        <v>78.4</v>
+        <v>78.0</v>
       </c>
       <c r="CW158" t="n" s="10">
-        <v>76.7</v>
+        <v>76.4</v>
       </c>
       <c r="CX158" t="n" s="10">
-        <v>75.7</v>
+        <v>75.4</v>
       </c>
       <c r="CY158" t="n" s="10">
-        <v>75.2</v>
+        <v>75.0</v>
       </c>
       <c r="CZ158" t="n" s="10">
-        <v>75.3</v>
+        <v>75.1</v>
       </c>
       <c r="DA158" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="DB158" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="DC158" t="n" s="10">
         <v>78.5</v>
@@ -55239,13 +55239,13 @@
         <v>84.7</v>
       </c>
       <c r="DH158" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="DI158" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DJ158" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="DK158" t="n" s="10">
         <v>89.0</v>
@@ -55260,13 +55260,13 @@
         <v>91.7</v>
       </c>
       <c r="DO158" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="DP158" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="DQ158" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DR158" t="n" s="10">
         <v>95.2</v>
@@ -57012,7 +57012,7 @@
         <v>65.8</v>
       </c>
       <c r="AG164" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="AH164" t="n" s="10">
         <v>66.8</v>
@@ -57027,10 +57027,10 @@
         <v>68.1</v>
       </c>
       <c r="AL164" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="AM164" t="n" s="10">
-        <v>69.0</v>
+        <v>69.1</v>
       </c>
       <c r="AN164" t="n" s="10">
         <v>69.4</v>
@@ -57084,7 +57084,7 @@
         <v>76.9</v>
       </c>
       <c r="BE164" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="BF164" t="n" s="10">
         <v>78.6</v>
@@ -57138,13 +57138,13 @@
         <v>92.0</v>
       </c>
       <c r="BW164" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="BX164" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="BY164" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BZ164" t="n" s="10">
         <v>95.0</v>
@@ -57165,7 +57165,7 @@
         <v>99.0</v>
       </c>
       <c r="CF164" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="CG164" t="n" s="10">
         <v>100.7</v>
@@ -57189,13 +57189,13 @@
         <v>101.2</v>
       </c>
       <c r="CN164" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CO164" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CP164" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="CQ164" t="n" s="10">
         <v>93.5</v>
@@ -57204,25 +57204,25 @@
         <v>90.9</v>
       </c>
       <c r="CS164" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="CT164" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="CU164" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="CV164" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="CW164" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="CX164" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="CY164" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="CZ164" t="n" s="10">
         <v>76.6</v>
@@ -57384,7 +57384,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:56:46&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:33:09&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>